--- a/data/trans_orig/P19C04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>49664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38263</v>
+        <v>37432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64477</v>
+        <v>64591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1285618193789784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09905025940430841</v>
+        <v>0.09689937837057694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1669072350664824</v>
+        <v>0.1672028239248079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>18879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11986</v>
+        <v>12034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29266</v>
+        <v>28964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07036800396136136</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04467527439025551</v>
+        <v>0.04485455151117836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1090850948091401</v>
+        <v>0.1079601433603388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -786,19 +786,19 @@
         <v>68543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53377</v>
+        <v>53889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85472</v>
+        <v>85552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1047107505384465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0815420611840712</v>
+        <v>0.08232498573891131</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1305725760234424</v>
+        <v>0.1306948758436401</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>336638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>321825</v>
+        <v>321711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>348039</v>
+        <v>348870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8714381806210216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8330927649335181</v>
+        <v>0.8327971760751921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9009497405956918</v>
+        <v>0.903100621629423</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -836,19 +836,19 @@
         <v>249408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239021</v>
+        <v>239323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256301</v>
+        <v>256253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9296319960386387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8909149051908599</v>
+        <v>0.8920398566396613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9553247256097445</v>
+        <v>0.9551454484888224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>565</v>
@@ -857,19 +857,19 @@
         <v>586047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569118</v>
+        <v>569038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>601213</v>
+        <v>600701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8952892494615535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8694274239765577</v>
+        <v>0.8693051241563602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9184579388159287</v>
+        <v>0.9176750142610888</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>46385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34085</v>
+        <v>34244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60640</v>
+        <v>60529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1545100121774642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1135394235551354</v>
+        <v>0.1140690670307732</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2019960165121351</v>
+        <v>0.2016252961105231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>25389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16171</v>
+        <v>16439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37444</v>
+        <v>36946</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07611374969571065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.048480438732818</v>
+        <v>0.04928334901328499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1122551576603963</v>
+        <v>0.110761486248973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1003,19 +1003,19 @@
         <v>71774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55836</v>
+        <v>55972</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90430</v>
+        <v>90044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1132486430439863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08810126631997418</v>
+        <v>0.08831656994192158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1426858518613817</v>
+        <v>0.1420762822262733</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>253820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239565</v>
+        <v>239676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266120</v>
+        <v>265961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8454899878225358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7980039834878654</v>
+        <v>0.7983747038894767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8864605764448648</v>
+        <v>0.8859309329692268</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -1053,19 +1053,19 @@
         <v>308176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296121</v>
+        <v>296619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317394</v>
+        <v>317126</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9238862503042894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8877448423396037</v>
+        <v>0.889238513751027</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9515195612671821</v>
+        <v>0.950716650986715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>539</v>
@@ -1074,19 +1074,19 @@
         <v>561996</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>543340</v>
+        <v>543726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>577934</v>
+        <v>577798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8867513569560137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8573141481386183</v>
+        <v>0.8579237177737264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9118987336800257</v>
+        <v>0.9116834300580779</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>91825</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76251</v>
+        <v>76497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109331</v>
+        <v>110734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2134138725155945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1772178586663106</v>
+        <v>0.1777902229685621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2540994620705799</v>
+        <v>0.2573605459982042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>19149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11760</v>
+        <v>12037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27652</v>
+        <v>28044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1367130855888401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08396062256233551</v>
+        <v>0.08593866588415335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1974181111097273</v>
+        <v>0.2002175129763367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1220,19 +1220,19 @@
         <v>110974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93219</v>
+        <v>94049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130973</v>
+        <v>130202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1945769898745545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1634463830964715</v>
+        <v>0.1649010866636324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2296414749260796</v>
+        <v>0.2282911851734517</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>338442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320936</v>
+        <v>319533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>354016</v>
+        <v>353770</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7865861274844055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7459005379294205</v>
+        <v>0.742639454001796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8227821413336898</v>
+        <v>0.8222097770314379</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -1270,19 +1270,19 @@
         <v>120919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112416</v>
+        <v>112024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128308</v>
+        <v>128031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8632869144111599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8025818888902726</v>
+        <v>0.7997824870236633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9160393774376645</v>
+        <v>0.9140613341158467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>453</v>
@@ -1291,19 +1291,19 @@
         <v>459361</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>439362</v>
+        <v>440133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477116</v>
+        <v>476286</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8054230101254455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7703585250739204</v>
+        <v>0.7717088148265483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8365536169035285</v>
+        <v>0.8350989133363675</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>219913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194075</v>
+        <v>197823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245625</v>
+        <v>247023</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2523521287715092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2227019636972358</v>
+        <v>0.227003221548852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2818561209880264</v>
+        <v>0.2834609169462429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -1416,19 +1416,19 @@
         <v>95136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77029</v>
+        <v>78385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115477</v>
+        <v>114847</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1595570983432926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1291887416031196</v>
+        <v>0.1314638195879716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1936724762924247</v>
+        <v>0.1926152809290361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -1437,19 +1437,19 @@
         <v>315049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>284632</v>
+        <v>282328</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>346984</v>
+        <v>346291</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2146544923700028</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.193930104441834</v>
+        <v>0.1923606586231295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2364128445844415</v>
+        <v>0.2359409934602637</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>651541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625829</v>
+        <v>624431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>677379</v>
+        <v>673631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7476478712284909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7181438790119736</v>
+        <v>0.7165390830537571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7772980363027642</v>
+        <v>0.772996778451148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -1487,19 +1487,19 @@
         <v>501113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480772</v>
+        <v>481402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>519220</v>
+        <v>517864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8404429016567074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8063275237075754</v>
+        <v>0.8073847190709639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8708112583968803</v>
+        <v>0.8685361804120285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1130</v>
@@ -1508,19 +1508,19 @@
         <v>1152653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1120718</v>
+        <v>1121411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1183070</v>
+        <v>1185374</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7853455076299972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7635871554155587</v>
+        <v>0.7640590065397362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.806069895558166</v>
+        <v>0.8076393413768708</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>60479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46870</v>
+        <v>47841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73108</v>
+        <v>75031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2439386414411094</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1890482597788107</v>
+        <v>0.1929623486008447</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2948752881773086</v>
+        <v>0.3026347538124655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -1633,19 +1633,19 @@
         <v>90735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73780</v>
+        <v>73945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107650</v>
+        <v>110427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1989453646111898</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1617703684117941</v>
+        <v>0.1621319935035772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2360334085709857</v>
+        <v>0.242121023624084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -1654,19 +1654,19 @@
         <v>151214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129842</v>
+        <v>127183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173431</v>
+        <v>170462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2147904556402311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1844334464738382</v>
+        <v>0.1806552958094345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.246348921904232</v>
+        <v>0.2421316625735938</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>187448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174819</v>
+        <v>172896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201057</v>
+        <v>200086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7560613585588907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7051247118226913</v>
+        <v>0.6973652461875343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8109517402211892</v>
+        <v>0.8070376513991553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>346</v>
@@ -1704,19 +1704,19 @@
         <v>365345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>348430</v>
+        <v>345653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>382300</v>
+        <v>382135</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8010546353888102</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7639665914290142</v>
+        <v>0.7578789763759158</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.838229631588206</v>
+        <v>0.8378680064964227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>528</v>
@@ -1725,19 +1725,19 @@
         <v>552793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>530576</v>
+        <v>533545</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>574165</v>
+        <v>576824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7852095443597689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7536510780957679</v>
+        <v>0.7578683374264061</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8155665535261618</v>
+        <v>0.8193447041905656</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>20528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12699</v>
+        <v>13139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30017</v>
+        <v>31613</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09672317253110506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05983432450767328</v>
+        <v>0.06190634257317969</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1414332271351181</v>
+        <v>0.1489546948099074</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -1850,19 +1850,19 @@
         <v>153275</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132365</v>
+        <v>130927</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176140</v>
+        <v>177744</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1620899723311719</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1399780615523539</v>
+        <v>0.138456799087095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1862703225062811</v>
+        <v>0.1879663838955736</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>175</v>
@@ -1871,19 +1871,19 @@
         <v>173803</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149854</v>
+        <v>152244</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198877</v>
+        <v>198443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1501082611535678</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1294244289537768</v>
+        <v>0.1314888301257507</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1717638042772474</v>
+        <v>0.171389698524132</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>191705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182216</v>
+        <v>180620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199534</v>
+        <v>199094</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9032768274688949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.858566772864882</v>
+        <v>0.8510453051900929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9401656754923268</v>
+        <v>0.9380936574268204</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>785</v>
@@ -1921,19 +1921,19 @@
         <v>792341</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>769476</v>
+        <v>767872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>813251</v>
+        <v>814689</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8379100276688282</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8137296774937188</v>
+        <v>0.812033616104427</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8600219384476461</v>
+        <v>0.861543200912905</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>985</v>
@@ -1942,19 +1942,19 @@
         <v>984046</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>958972</v>
+        <v>959406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1007995</v>
+        <v>1005605</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8498917388464322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8282361957227529</v>
+        <v>0.828610301475868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8705755710462233</v>
+        <v>0.8685111698742494</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>488793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>446664</v>
+        <v>451100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>530061</v>
+        <v>535834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1996388300966227</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1824318413210163</v>
+        <v>0.1842436998329416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2164936801309811</v>
+        <v>0.2188516591608588</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>395</v>
@@ -2067,19 +2067,19 @@
         <v>402562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>369437</v>
+        <v>368499</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>441147</v>
+        <v>440839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1469278378030896</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1348376677425044</v>
+        <v>0.1344954466769667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1610105590452296</v>
+        <v>0.1608981489304322</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>878</v>
@@ -2088,19 +2088,19 @@
         <v>891356</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>838075</v>
+        <v>837180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>946679</v>
+        <v>951186</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1718026851562486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.161533291674306</v>
+        <v>0.1613607012916284</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1824658263664618</v>
+        <v>0.1833345091860651</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1959595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1918327</v>
+        <v>1912554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2001724</v>
+        <v>1997288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8003611699033772</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7835063198690189</v>
+        <v>0.7811483408391413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8175681586789837</v>
+        <v>0.8157563001670585</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2283</v>
@@ -2138,19 +2138,19 @@
         <v>2337302</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2298717</v>
+        <v>2299025</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2370427</v>
+        <v>2371365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8530721621969104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8389894409547703</v>
+        <v>0.8391018510695678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8651623322574957</v>
+        <v>0.8655045533230333</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4200</v>
@@ -2159,19 +2159,19 @@
         <v>4296896</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4241573</v>
+        <v>4237066</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4350177</v>
+        <v>4351072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8281973148437515</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8175341736335382</v>
+        <v>0.8166654908139342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8384667083256939</v>
+        <v>0.8386392987083714</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>53369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40265</v>
+        <v>40872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67619</v>
+        <v>68954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1349929018682971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1018487767053574</v>
+        <v>0.1033845855876956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1710391876592672</v>
+        <v>0.1744163044639149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -2526,19 +2526,19 @@
         <v>30872</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21202</v>
+        <v>21329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43637</v>
+        <v>45067</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1050215362484894</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0721258567979514</v>
+        <v>0.07255876224941928</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1484493673874193</v>
+        <v>0.1533139234002722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -2547,19 +2547,19 @@
         <v>84240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67105</v>
+        <v>67853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104821</v>
+        <v>107205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1222114839515577</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09735288042531216</v>
+        <v>0.09843801325925591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1520687416387585</v>
+        <v>0.1555281692630991</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>341975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327725</v>
+        <v>326390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355079</v>
+        <v>354472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8650070981317028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8289608123407328</v>
+        <v>0.8255836955360851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8981512232946426</v>
+        <v>0.8966154144123044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -2597,19 +2597,19 @@
         <v>263082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250317</v>
+        <v>248887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272752</v>
+        <v>272625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8949784637515106</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8515506326125807</v>
+        <v>0.8466860765997278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9278741432020485</v>
+        <v>0.9274412377505807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>556</v>
@@ -2618,19 +2618,19 @@
         <v>605059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>584478</v>
+        <v>582094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622194</v>
+        <v>621446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8777885160484422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8479312583612418</v>
+        <v>0.8444718307369009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9026471195746884</v>
+        <v>0.9015619867407441</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>55811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43438</v>
+        <v>42628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73790</v>
+        <v>71090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1454466489091455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1132014819317944</v>
+        <v>0.1110894725160221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1922992455368924</v>
+        <v>0.1852642439396019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2743,19 +2743,19 @@
         <v>33412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22983</v>
+        <v>23295</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46384</v>
+        <v>46461</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1065764219099825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0733111945353724</v>
+        <v>0.074304930732307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.147955972475741</v>
+        <v>0.1482012177966844</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -2764,19 +2764,19 @@
         <v>89223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72760</v>
+        <v>71854</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110279</v>
+        <v>109663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1279690031375702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1043560279854745</v>
+        <v>0.1030572106134712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.158167863655038</v>
+        <v>0.1572846336942783</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>327913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>309934</v>
+        <v>312634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340286</v>
+        <v>341096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8545533510908545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8077007544631075</v>
+        <v>0.8147357560603984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8867985180682055</v>
+        <v>0.8889105274839779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>251</v>
@@ -2814,19 +2814,19 @@
         <v>280089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267117</v>
+        <v>267040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>290518</v>
+        <v>290206</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8934235780900175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.852044027524259</v>
+        <v>0.8517987822033156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9266888054646275</v>
+        <v>0.9256950692676931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>543</v>
@@ -2835,19 +2835,19 @@
         <v>608002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>586946</v>
+        <v>587562</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>624465</v>
+        <v>625371</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8720309968624298</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8418321363449623</v>
+        <v>0.8427153663057217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8956439720145256</v>
+        <v>0.8969427893865289</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>140090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120572</v>
+        <v>118957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161871</v>
+        <v>163514</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2616125776204995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2251634096214346</v>
+        <v>0.2221472058781298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3022867264147152</v>
+        <v>0.3053544826600437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2960,19 +2960,19 @@
         <v>26695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17678</v>
+        <v>17738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37419</v>
+        <v>38184</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1113987281859749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07376778203272107</v>
+        <v>0.07402052256070653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1561499209714478</v>
+        <v>0.1593395552531938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -2981,19 +2981,19 @@
         <v>166786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144527</v>
+        <v>142190</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191070</v>
+        <v>190426</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2151724958978592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.186456414208595</v>
+        <v>0.1834416427914723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2465017269840972</v>
+        <v>0.245671362626469</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>395398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>373617</v>
+        <v>371974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414916</v>
+        <v>416531</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7383874223795005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6977132735852848</v>
+        <v>0.6946455173399562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7748365903785649</v>
+        <v>0.7778527941218699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>200</v>
@@ -3031,19 +3031,19 @@
         <v>212943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>202219</v>
+        <v>201454</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>221960</v>
+        <v>221900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.888601271814025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8438500790285521</v>
+        <v>0.8406604447468059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9262322179672786</v>
+        <v>0.9259794774392934</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>575</v>
@@ -3052,19 +3052,19 @@
         <v>608339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>584055</v>
+        <v>584699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>630598</v>
+        <v>632935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7848275041021407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7534982730159029</v>
+        <v>0.7543286373735311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.813543585791405</v>
+        <v>0.8165583572085278</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>315297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>284241</v>
+        <v>285123</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>347835</v>
+        <v>345309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3241363505132192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2922094580773847</v>
+        <v>0.2931163102366151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3575867300355168</v>
+        <v>0.3549894981820587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -3177,19 +3177,19 @@
         <v>107731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89068</v>
+        <v>89690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128765</v>
+        <v>130183</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1541381115501389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1274350795749306</v>
+        <v>0.1283254088401617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1842327204347653</v>
+        <v>0.1862609552352765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>390</v>
@@ -3198,19 +3198,19 @@
         <v>423028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>385557</v>
+        <v>388293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464526</v>
+        <v>457231</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2530592832722958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2306437198201531</v>
+        <v>0.2322801995364046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2778835724884819</v>
+        <v>0.2735195169091433</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>657432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>624894</v>
+        <v>627420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>688488</v>
+        <v>687606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6758636494867808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6424132699644831</v>
+        <v>0.6450105018179413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7077905419226153</v>
+        <v>0.706883689763385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>551</v>
@@ -3248,19 +3248,19 @@
         <v>591196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>570162</v>
+        <v>568744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>609859</v>
+        <v>609237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8458618884498611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8157672795652338</v>
+        <v>0.8137390447647236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8725649204250693</v>
+        <v>0.8716745911598384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1169</v>
@@ -3269,19 +3269,19 @@
         <v>1248628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1207130</v>
+        <v>1214425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1286099</v>
+        <v>1283363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7469407167277041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7221164275115182</v>
+        <v>0.7264804830908568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7693562801798476</v>
+        <v>0.7677198004635954</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>134678</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115352</v>
+        <v>114717</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153452</v>
+        <v>154875</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3339288399856074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2860108202218761</v>
+        <v>0.284438277241502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3804792504748445</v>
+        <v>0.3840068126195337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -3394,19 +3394,19 @@
         <v>160140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139778</v>
+        <v>138856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186424</v>
+        <v>184427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2394580890694937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.209010470097711</v>
+        <v>0.2076330679258035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2787605578813581</v>
+        <v>0.27577446632109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>282</v>
@@ -3415,19 +3415,19 @@
         <v>294817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>268042</v>
+        <v>262808</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>325715</v>
+        <v>325823</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.274997905461508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2500222917578651</v>
+        <v>0.245140844700177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3038187443723258</v>
+        <v>0.3039195523530383</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>268634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249860</v>
+        <v>248437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>287960</v>
+        <v>288595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6660711600143926</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6195207495251557</v>
+        <v>0.6159931873804663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.713989179778124</v>
+        <v>0.7155617227584979</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>468</v>
@@ -3465,19 +3465,19 @@
         <v>508619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>482335</v>
+        <v>484332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>528981</v>
+        <v>529903</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7605419109305063</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7212394421186418</v>
+        <v>0.72422553367891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7909895299022889</v>
+        <v>0.7923669320741965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>725</v>
@@ -3486,19 +3486,19 @@
         <v>777254</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>746356</v>
+        <v>746248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804029</v>
+        <v>809263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.725002094538492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6961812556276744</v>
+        <v>0.6960804476469618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7499777082421351</v>
+        <v>0.7548591552998231</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>20953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12874</v>
+        <v>13269</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29762</v>
+        <v>31173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09472141249732235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05819944004087484</v>
+        <v>0.0599833795081668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1345453189024448</v>
+        <v>0.140926194963169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -3611,19 +3611,19 @@
         <v>193015</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>167986</v>
+        <v>166965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218533</v>
+        <v>217916</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2083548925489602</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1813362988429852</v>
+        <v>0.1802346875568545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2359003412853211</v>
+        <v>0.2352343812031674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>204</v>
@@ -3632,19 +3632,19 @@
         <v>213968</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>188309</v>
+        <v>189383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241831</v>
+        <v>242082</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1864513705000539</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1640925146311479</v>
+        <v>0.1650278066603389</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2107314509856921</v>
+        <v>0.210950292292488</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>200250</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191441</v>
+        <v>190030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208329</v>
+        <v>207934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9052785875026776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8654546810975553</v>
+        <v>0.859073805036831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9418005599591251</v>
+        <v>0.940016620491833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>688</v>
@@ -3682,19 +3682,19 @@
         <v>733362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>707844</v>
+        <v>708461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>758391</v>
+        <v>759412</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7916451074510398</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7640996587146789</v>
+        <v>0.7647656187968327</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8186637011570148</v>
+        <v>0.8197653124431455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>887</v>
@@ -3703,19 +3703,19 @@
         <v>933612</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>905749</v>
+        <v>905498</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>959271</v>
+        <v>958197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8135486294999461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7892685490143078</v>
+        <v>0.7890497077075119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8359074853688522</v>
+        <v>0.8349721933396611</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>720197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>672653</v>
+        <v>670746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>768723</v>
+        <v>767436</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2473375092041558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2310092258211941</v>
+        <v>0.230354553155861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2640028335477002</v>
+        <v>0.2635606351588376</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>514</v>
@@ -3828,19 +3828,19 @@
         <v>551865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>507735</v>
+        <v>505696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>598649</v>
+        <v>598897</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.175688466407068</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1616396689748029</v>
+        <v>0.1609903769455624</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1905824884735278</v>
+        <v>0.1906614159364633</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1188</v>
@@ -3849,19 +3849,19 @@
         <v>1272062</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1203422</v>
+        <v>1208180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1333854</v>
+        <v>1343133</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2101555398446728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.198815559417781</v>
+        <v>0.1996016963300328</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2203640828601306</v>
+        <v>0.2218970990993572</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2191603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2143077</v>
+        <v>2144364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2239147</v>
+        <v>2241054</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7526624907958441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7359971664522998</v>
+        <v>0.7364393648411623</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.768990774178806</v>
+        <v>0.769645446844139</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2396</v>
@@ -3899,19 +3899,19 @@
         <v>2589291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2542507</v>
+        <v>2542259</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2633421</v>
+        <v>2635460</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.824311533592932</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8094175115264723</v>
+        <v>0.8093385840635361</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8383603310251971</v>
+        <v>0.8390096230544373</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4455</v>
@@ -3920,19 +3920,19 @@
         <v>4780894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4719102</v>
+        <v>4709823</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4849534</v>
+        <v>4844776</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7898444601553273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7796359171398693</v>
+        <v>0.7781029009006434</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.801184440582219</v>
+        <v>0.8003983036699672</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>34834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24592</v>
+        <v>25065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48079</v>
+        <v>47932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08986649174789603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06344557287099292</v>
+        <v>0.06466366393192632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1240377287752051</v>
+        <v>0.1236582696697367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4287,19 +4287,19 @@
         <v>24443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15862</v>
+        <v>15731</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34514</v>
+        <v>35585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07739496433671458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05022431454755905</v>
+        <v>0.04981220877346606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1092847212380087</v>
+        <v>0.1126757675581678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -4308,19 +4308,19 @@
         <v>59276</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45524</v>
+        <v>46536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74759</v>
+        <v>76843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08426720192000292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06471735808834135</v>
+        <v>0.06615623558832928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.106277286691226</v>
+        <v>0.1092397402573662</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>352780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339535</v>
+        <v>339682</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>363022</v>
+        <v>362549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9101335082521039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8759622712247949</v>
+        <v>0.8763417303302632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9365544271290069</v>
+        <v>0.9353363360680735</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -4358,19 +4358,19 @@
         <v>291373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281302</v>
+        <v>280231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299954</v>
+        <v>300085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9226050356632854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8907152787619911</v>
+        <v>0.8873242324418325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.949775685452441</v>
+        <v>0.9501877912265342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>607</v>
@@ -4379,19 +4379,19 @@
         <v>644154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628671</v>
+        <v>626587</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>657906</v>
+        <v>656894</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9157327980799971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8937227133087741</v>
+        <v>0.8907602597426338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9352826419116587</v>
+        <v>0.9338437644116706</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>39943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28087</v>
+        <v>28648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54101</v>
+        <v>53236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1261403976768666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08869935331581447</v>
+        <v>0.09046878961419171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1708503264678548</v>
+        <v>0.1681181194311377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -4504,19 +4504,19 @@
         <v>20275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12337</v>
+        <v>12659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31542</v>
+        <v>31749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06078225515923712</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03698448761659928</v>
+        <v>0.03794863095030914</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09455802334243402</v>
+        <v>0.0951775277050565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -4525,19 +4525,19 @@
         <v>60219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47078</v>
+        <v>46965</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78181</v>
+        <v>77935</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09261113864235401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07240203268287226</v>
+        <v>0.07222762208464176</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1202358147363776</v>
+        <v>0.119856621890176</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>276715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>262557</v>
+        <v>263422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>288571</v>
+        <v>288010</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8738596023231334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8291496735321452</v>
+        <v>0.8318818805688624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9113006466841855</v>
+        <v>0.9095312103858083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -4575,19 +4575,19 @@
         <v>313300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302033</v>
+        <v>301826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321238</v>
+        <v>320916</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9392177448407629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9054419766575661</v>
+        <v>0.9048224722949435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9630155123834008</v>
+        <v>0.9620513690496908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>558</v>
@@ -4596,19 +4596,19 @@
         <v>590013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>572051</v>
+        <v>572297</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>603154</v>
+        <v>603267</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.907388861357646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8797641852636221</v>
+        <v>0.880143378109824</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9275979673171276</v>
+        <v>0.9277723779153582</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>73274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60007</v>
+        <v>60292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89860</v>
+        <v>90792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1808292145028931</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1480888748212912</v>
+        <v>0.148791641318426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2217616315926272</v>
+        <v>0.2240617899334268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4721,19 +4721,19 @@
         <v>21713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13692</v>
+        <v>13383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32031</v>
+        <v>32505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1557354805535098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09820864972208947</v>
+        <v>0.09598827182229777</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2297431713220119</v>
+        <v>0.2331456787448528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -4742,19 +4742,19 @@
         <v>94987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78015</v>
+        <v>78752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114187</v>
+        <v>112583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1744054264149485</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1432427817762277</v>
+        <v>0.1445965887448442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2096578193904939</v>
+        <v>0.2067139738141253</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>331937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>315351</v>
+        <v>314419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>345204</v>
+        <v>344919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8191707854971069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7782383684073728</v>
+        <v>0.7759382100665732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8519111251787087</v>
+        <v>0.851208358681574</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -4792,19 +4792,19 @@
         <v>117708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107390</v>
+        <v>106916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125729</v>
+        <v>126038</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8442645194464903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7702568286779879</v>
+        <v>0.7668543212551471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9017913502779105</v>
+        <v>0.904011728177702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>426</v>
@@ -4813,19 +4813,19 @@
         <v>449646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430446</v>
+        <v>432050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>466618</v>
+        <v>465881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8255945735850515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7903421806095065</v>
+        <v>0.7932860261858747</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8567572182237723</v>
+        <v>0.8554034112551557</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>187603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163480</v>
+        <v>162424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213363</v>
+        <v>211051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2133053813985071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1858767274228651</v>
+        <v>0.184676083309215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2425940800189278</v>
+        <v>0.2399652170412481</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -4938,19 +4938,19 @@
         <v>85133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67849</v>
+        <v>68445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103847</v>
+        <v>102752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.124657912663131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09934843443569392</v>
+        <v>0.1002212814715653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1520590326494863</v>
+        <v>0.1504565731551427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -4959,19 +4959,19 @@
         <v>272736</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245041</v>
+        <v>242431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>306370</v>
+        <v>306327</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1745579434700335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1568320415256385</v>
+        <v>0.1551618090016724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1960840372154763</v>
+        <v>0.1960569645542858</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>691902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>666142</v>
+        <v>668454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>716025</v>
+        <v>717081</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7866946186014929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7574059199810724</v>
+        <v>0.7600347829587518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8141232725771355</v>
+        <v>0.8153239166907844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -5009,19 +5009,19 @@
         <v>597803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>579089</v>
+        <v>580184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615087</v>
+        <v>614491</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.875342087336869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8479409673505136</v>
+        <v>0.8495434268448575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.900651565564306</v>
+        <v>0.8997787185284357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1244</v>
@@ -5030,19 +5030,19 @@
         <v>1289705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1256071</v>
+        <v>1256114</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1317400</v>
+        <v>1320010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8254420565299665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8039159627845237</v>
+        <v>0.8039430354457141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8431679584743615</v>
+        <v>0.8448381909983276</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>117486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98774</v>
+        <v>98488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135946</v>
+        <v>135855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2763286898903217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2323174578474375</v>
+        <v>0.2316438457431207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3197468644088534</v>
+        <v>0.3195318066470246</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -5155,19 +5155,19 @@
         <v>86398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71930</v>
+        <v>68587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105123</v>
+        <v>103224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1549788144193734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.129026368604932</v>
+        <v>0.1230298491435017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1885685910681772</v>
+        <v>0.1851617836147418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -5176,19 +5176,19 @@
         <v>203884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>178375</v>
+        <v>179842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231485</v>
+        <v>228706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2074840122438389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1815241945825499</v>
+        <v>0.1830174051551481</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2355721762666365</v>
+        <v>0.2327444429178569</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>307683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>289223</v>
+        <v>289314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>326395</v>
+        <v>326681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7236713101096782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6802531355911465</v>
+        <v>0.6804681933529755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7676825421525626</v>
+        <v>0.7683561542568794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>450</v>
@@ -5226,19 +5226,19 @@
         <v>471083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>452358</v>
+        <v>454257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>485551</v>
+        <v>488894</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8450211855806266</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8114314089318228</v>
+        <v>0.8148382163852587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.870973631395068</v>
+        <v>0.8769701508564984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>747</v>
@@ -5247,19 +5247,19 @@
         <v>778766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>751165</v>
+        <v>753944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804275</v>
+        <v>802808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7925159877561611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7644278237333633</v>
+        <v>0.7672555570821429</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8184758054174501</v>
+        <v>0.8169825948448518</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>22588</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14421</v>
+        <v>14430</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33164</v>
+        <v>32883</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09351201915193387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05970345587684353</v>
+        <v>0.05974010146435402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1372980469130226</v>
+        <v>0.1361341127460745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -5372,19 +5372,19 @@
         <v>135382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112601</v>
+        <v>112871</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160136</v>
+        <v>157604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1640419388095542</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1364379255121945</v>
+        <v>0.1367652657614864</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1940358601053419</v>
+        <v>0.1909684545519324</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -5393,19 +5393,19 @@
         <v>157970</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135863</v>
+        <v>135086</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188121</v>
+        <v>184855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.148072894550547</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1273515046431192</v>
+        <v>0.1266226167151076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1763352236133877</v>
+        <v>0.173273968535152</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>218960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208384</v>
+        <v>208665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227127</v>
+        <v>227118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9064879808480661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8627019530869774</v>
+        <v>0.8638658872539249</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9402965441231564</v>
+        <v>0.940259898535646</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>649</v>
@@ -5443,19 +5443,19 @@
         <v>689907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>665153</v>
+        <v>667685</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>712688</v>
+        <v>712418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8359580611904458</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8059641398946581</v>
+        <v>0.8090315454480677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8635620744878055</v>
+        <v>0.8632347342385135</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>857</v>
@@ -5464,19 +5464,19 @@
         <v>908867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>878716</v>
+        <v>881982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>930974</v>
+        <v>931751</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8519271054494529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8236647763866126</v>
+        <v>0.8267260314648482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8726484953568809</v>
+        <v>0.8733773832848925</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>475728</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>433835</v>
+        <v>438164</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>520911</v>
+        <v>517749</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1791343812766126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1633595065561853</v>
+        <v>0.1649895412838031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1961480074235051</v>
+        <v>0.1949572388444706</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>345</v>
@@ -5589,19 +5589,19 @@
         <v>373344</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>334563</v>
+        <v>338438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>411704</v>
+        <v>409462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1307905462992394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1172048002208595</v>
+        <v>0.1185623901920659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.144228765480731</v>
+        <v>0.1434434927158703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>799</v>
@@ -5610,19 +5610,19 @@
         <v>849072</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>794881</v>
+        <v>798705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>906189</v>
+        <v>910840</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1540903220789939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1442556693894522</v>
+        <v>0.1449496654422616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.16445588503704</v>
+        <v>0.16529997977626</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2179977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2134794</v>
+        <v>2137956</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2221870</v>
+        <v>2217541</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8208656187233874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8038519925764949</v>
+        <v>0.8050427611555294</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8366404934438147</v>
+        <v>0.8350104587161968</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2370</v>
@@ -5660,19 +5660,19 @@
         <v>2481174</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2442814</v>
+        <v>2445056</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2519955</v>
+        <v>2516080</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8692094537007606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8557712345192692</v>
+        <v>0.8565565072841296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8827951997791406</v>
+        <v>0.8814376098079337</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4439</v>
@@ -5681,19 +5681,19 @@
         <v>4661151</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4604034</v>
+        <v>4599383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4715342</v>
+        <v>4711518</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.845909677921006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8355441149629603</v>
+        <v>0.83470002022374</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8557443306105478</v>
+        <v>0.8550503345577384</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>45624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34242</v>
+        <v>34715</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58138</v>
+        <v>60848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08429170376143622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06326314966687165</v>
+        <v>0.064137278978264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1074122928215795</v>
+        <v>0.112419232347776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6048,19 +6048,19 @@
         <v>22440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15187</v>
+        <v>16221</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30663</v>
+        <v>31680</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04662058717408771</v>
+        <v>0.0466205871740877</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03155305656088753</v>
+        <v>0.03370082029081849</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06370572705654719</v>
+        <v>0.06581891424019358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -6069,19 +6069,19 @@
         <v>68064</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54136</v>
+        <v>54326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83732</v>
+        <v>83823</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06656014873419333</v>
+        <v>0.06656014873419334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05294008392576545</v>
+        <v>0.05312589392892328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08188235822401141</v>
+        <v>0.08197135075314599</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>495639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>483125</v>
+        <v>480415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>507021</v>
+        <v>506548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9157082962385638</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8925877071784205</v>
+        <v>0.887580767652224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9367368503331283</v>
+        <v>0.935862721021736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>641</v>
@@ -6119,19 +6119,19 @@
         <v>458887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450664</v>
+        <v>449647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466140</v>
+        <v>465106</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9533794128259122</v>
+        <v>0.9533794128259124</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9362942729434524</v>
+        <v>0.934181085759806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9684469434391124</v>
+        <v>0.9662991797091814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1133</v>
@@ -6140,19 +6140,19 @@
         <v>954526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>938858</v>
+        <v>938767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>968454</v>
+        <v>968264</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9334398512658068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9181176417759885</v>
+        <v>0.9180286492468542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9470599160742347</v>
+        <v>0.9468741060710768</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>48458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37428</v>
+        <v>36598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64062</v>
+        <v>63129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1010941590807776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07808371933637456</v>
+        <v>0.07635282345999826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1336482464961438</v>
+        <v>0.1317029499968455</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -6265,19 +6265,19 @@
         <v>24470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16985</v>
+        <v>17210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34431</v>
+        <v>33383</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05855258971545908</v>
+        <v>0.05855258971545909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04064126851865672</v>
+        <v>0.04117928502142247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08238668326068312</v>
+        <v>0.07987847896711699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -6286,19 +6286,19 @@
         <v>72928</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58536</v>
+        <v>58866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88684</v>
+        <v>90349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08127924617954733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06523946767413676</v>
+        <v>0.06560676452589101</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09883996823130185</v>
+        <v>0.1006951597628145</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>430874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415270</v>
+        <v>416203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>441904</v>
+        <v>442734</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8989058409192225</v>
+        <v>0.8989058409192224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8663517535038562</v>
+        <v>0.8682970500031544</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9219162806636254</v>
+        <v>0.9236471765400018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>548</v>
@@ -6336,19 +6336,19 @@
         <v>393450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383489</v>
+        <v>384537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>400935</v>
+        <v>400710</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9414474102845408</v>
+        <v>0.9414474102845409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9176133167393175</v>
+        <v>0.9201215210328831</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9593587314813434</v>
+        <v>0.9588207149785777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>972</v>
@@ -6357,19 +6357,19 @@
         <v>824325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>808569</v>
+        <v>806904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>838717</v>
+        <v>838387</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9187207538204527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9011600317686985</v>
+        <v>0.8993048402371854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9347605323258636</v>
+        <v>0.934393235474109</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>72973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58585</v>
+        <v>59509</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89893</v>
+        <v>92242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.157314109080049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1262967703633033</v>
+        <v>0.1282890225053812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1937920429107118</v>
+        <v>0.1988559949990536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6482,19 +6482,19 @@
         <v>19248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13400</v>
+        <v>13357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26924</v>
+        <v>27329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1041357385750528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0724977307508054</v>
+        <v>0.07226505663051304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1456688852109319</v>
+        <v>0.14786036882053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -6503,19 +6503,19 @@
         <v>92220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76992</v>
+        <v>76357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111206</v>
+        <v>111617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1421620422806365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1186861998591341</v>
+        <v>0.1177074288084098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1714291281740576</v>
+        <v>0.1720624075138234</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>390892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>373972</v>
+        <v>371623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>405280</v>
+        <v>404356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8426858909199511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8062079570892882</v>
+        <v>0.8011440050009462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8737032296366967</v>
+        <v>0.8717109774946187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -6553,19 +6553,19 @@
         <v>165585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157909</v>
+        <v>157504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171433</v>
+        <v>171476</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.895864261424947</v>
+        <v>0.8958642614249472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.854331114789068</v>
+        <v>0.8521396311794701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9275022692491945</v>
+        <v>0.927734943369487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -6574,19 +6574,19 @@
         <v>556478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537492</v>
+        <v>537081</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>571706</v>
+        <v>572341</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8578379577193636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8285708718259425</v>
+        <v>0.8279375924861765</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8813138001408659</v>
+        <v>0.8822925711915901</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>207364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183615</v>
+        <v>182517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235375</v>
+        <v>235923</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.189252907899108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1675776079217108</v>
+        <v>0.1665757591204066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2148169467763089</v>
+        <v>0.2153174785952168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -6699,19 +6699,19 @@
         <v>91117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77356</v>
+        <v>77693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106685</v>
+        <v>108494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.108888492256746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09244369437115589</v>
+        <v>0.09284588268897552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1274936886592389</v>
+        <v>0.1296553485324821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>380</v>
@@ -6720,19 +6720,19 @@
         <v>298481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268725</v>
+        <v>270647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330871</v>
+        <v>330681</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1544541788849853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1390563513314597</v>
+        <v>0.1400511829886839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1712148074164683</v>
+        <v>0.1711166888748226</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>888335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>860324</v>
+        <v>859776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912084</v>
+        <v>913182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.810747092100892</v>
+        <v>0.8107470921008921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7851830532236909</v>
+        <v>0.7846825214047827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8324223920782888</v>
+        <v>0.833424240879593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1056</v>
@@ -6770,19 +6770,19 @@
         <v>745673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>730105</v>
+        <v>728296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>759434</v>
+        <v>759097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.891111507743254</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8725063113407608</v>
+        <v>0.8703446514675179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9075563056288442</v>
+        <v>0.9071541173110246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1903</v>
@@ -6791,19 +6791,19 @@
         <v>1634008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1601618</v>
+        <v>1601808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1663764</v>
+        <v>1661842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8455458211150146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8287851925835321</v>
+        <v>0.8288833111251775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8609436486685403</v>
+        <v>0.8599488170113163</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>147869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126778</v>
+        <v>128079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169346</v>
+        <v>169220</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2900251284842478</v>
+        <v>0.2900251284842479</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2486589333253691</v>
+        <v>0.2512109110034062</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3321501969054562</v>
+        <v>0.3319030527607433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -6916,19 +6916,19 @@
         <v>141802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125216</v>
+        <v>124372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160733</v>
+        <v>159945</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1787027252882764</v>
+        <v>0.1787027252882765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1578015266245313</v>
+        <v>0.1567378632429473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2025603640887667</v>
+        <v>0.2015681201871119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>415</v>
@@ -6937,19 +6937,19 @@
         <v>289670</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>262709</v>
+        <v>264241</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318346</v>
+        <v>317674</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.222250043862097</v>
+        <v>0.2222500438620971</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.201563826279993</v>
+        <v>0.2027392416336181</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.244251761120372</v>
+        <v>0.243736056702397</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>361979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>340502</v>
+        <v>340628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383070</v>
+        <v>381769</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.709974871515752</v>
+        <v>0.7099748715157521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6678498030945438</v>
+        <v>0.6680969472392568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7513410666746307</v>
+        <v>0.7487890889965938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>985</v>
@@ -6987,19 +6987,19 @@
         <v>651703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>632772</v>
+        <v>633560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>668289</v>
+        <v>669133</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8212972747117234</v>
+        <v>0.8212972747117235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7974396359112332</v>
+        <v>0.7984318798128881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8421984733754687</v>
+        <v>0.8432621367570527</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1316</v>
@@ -7008,19 +7008,19 @@
         <v>1013683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>985007</v>
+        <v>985679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1040644</v>
+        <v>1039112</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.777749956137903</v>
+        <v>0.7777499561379029</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7557482388796281</v>
+        <v>0.756263943297603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7984361737200069</v>
+        <v>0.7972607583663819</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>16064</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6842</v>
+        <v>7389</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30350</v>
+        <v>32328</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07152653644715057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03046419759037727</v>
+        <v>0.0328981393160101</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1351345131098816</v>
+        <v>0.1439421212814115</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -7133,19 +7133,19 @@
         <v>106900</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92238</v>
+        <v>90705</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123276</v>
+        <v>124122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1305659323096477</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1126576327283181</v>
+        <v>0.1107854117125404</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1505672245487863</v>
+        <v>0.1516014798558242</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -7154,19 +7154,19 @@
         <v>122964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104086</v>
+        <v>104505</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144470</v>
+        <v>143663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1178570635031202</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09976287515818356</v>
+        <v>0.1001651736124687</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1384704101120024</v>
+        <v>0.1376967948608488</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>208524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194238</v>
+        <v>192260</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217746</v>
+        <v>217199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9284734635528493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8648654868901186</v>
+        <v>0.856057878718589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9695358024096228</v>
+        <v>0.96710186068399</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>951</v>
@@ -7204,19 +7204,19 @@
         <v>711842</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>695466</v>
+        <v>694620</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>726504</v>
+        <v>728037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8694340676903521</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8494327754512141</v>
+        <v>0.8483985201441758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8873423672716821</v>
+        <v>0.8892145882874597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1045</v>
@@ -7225,19 +7225,19 @@
         <v>920367</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>898861</v>
+        <v>899668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>939245</v>
+        <v>938826</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8821429364968798</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8615295898879977</v>
+        <v>0.8623032051391513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002371248418165</v>
+        <v>0.8998348263875312</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>538351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492452</v>
+        <v>497334</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>581642</v>
+        <v>585193</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1624183518105357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1485708185149454</v>
+        <v>0.1500435080733994</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1754789724337114</v>
+        <v>0.176550260165746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>671</v>
@@ -7350,19 +7350,19 @@
         <v>405976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>377764</v>
+        <v>373624</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>439358</v>
+        <v>436682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1149058728626481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1069209642496656</v>
+        <v>0.1057490572353672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1243541853736361</v>
+        <v>0.1235968520445283</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1270</v>
@@ -7371,19 +7371,19 @@
         <v>944327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>892920</v>
+        <v>891049</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>998149</v>
+        <v>996952</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1379040139302039</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1303968736602055</v>
+        <v>0.1301235278751647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1457637952289239</v>
+        <v>0.1455890724476939</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2776245</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2732954</v>
+        <v>2729403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2822144</v>
+        <v>2817262</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8375816481894641</v>
+        <v>0.8375816481894642</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8245210275662886</v>
+        <v>0.8234497398342542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8514291814850542</v>
+        <v>0.8499564919266004</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4434</v>
@@ -7421,19 +7421,19 @@
         <v>3127142</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3093760</v>
+        <v>3096436</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3155354</v>
+        <v>3159494</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8850941271373519</v>
+        <v>0.8850941271373518</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.875645814626364</v>
+        <v>0.876403147955471</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8930790357503349</v>
+        <v>0.8942509427646322</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7017</v>
@@ -7442,19 +7442,19 @@
         <v>5903387</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5849565</v>
+        <v>5850762</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5954794</v>
+        <v>5956665</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8620959860697962</v>
+        <v>0.862095986069796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8542362047710762</v>
+        <v>0.8544109275523061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8696031263397946</v>
+        <v>0.8698764721248352</v>
       </c>
     </row>
     <row r="24">
